--- a/testData/126mailSend.xlsx
+++ b/testData/126mailSend.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
   <si>
     <t>序号</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>发邮件</t>
-  </si>
-  <si>
-    <t>Failed</t>
   </si>
   <si>
     <t>测试步骤描述</t>
@@ -1465,31 +1462,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row customHeight="1" ht="14.25" r="2" s="3" spans="1:10">
@@ -1497,18 +1494,18 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="D2" s="2" t="n"/>
       <c r="E2" s="2" t="n"/>
       <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -1521,18 +1518,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
       <c r="F3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
@@ -1545,16 +1542,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D4" s="2" t="n"/>
       <c r="E4" s="2" t="n"/>
       <c r="F4" s="2" t="n"/>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
@@ -1567,10 +1564,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="D5" s="2" t="n"/>
       <c r="E5" s="2" t="n"/>
@@ -1578,7 +1575,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
@@ -1591,18 +1588,18 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="D6" s="2" t="n"/>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
@@ -1615,20 +1612,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F7" s="2" t="n"/>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>11</v>
@@ -1641,22 +1638,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>11</v>
@@ -1669,22 +1666,22 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>11</v>
@@ -1697,20 +1694,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="F10" s="2" t="n"/>
       <c r="G10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>11</v>
@@ -1723,15 +1720,15 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="D11" s="2" t="n"/>
       <c r="E11" s="2" t="n"/>
       <c r="G11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>11</v>
@@ -1744,10 +1741,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="n"/>
       <c r="E12" s="2" t="n"/>
@@ -1755,7 +1752,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>11</v>
@@ -1768,18 +1765,18 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>63</v>
       </c>
       <c r="D13" s="2" t="n"/>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>11</v>
@@ -1824,31 +1821,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row customHeight="1" ht="14.25" r="2" s="3" spans="1:10">
@@ -1856,20 +1853,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F2" s="2" t="n"/>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -1882,20 +1879,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
@@ -1908,22 +1905,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
@@ -1936,22 +1933,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
@@ -1964,20 +1961,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F6" s="2" t="n"/>
       <c r="G6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
@@ -1990,18 +1987,18 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="D7" s="2" t="n"/>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>11</v>
@@ -2014,16 +2011,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="D8" s="2" t="n"/>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>11</v>
@@ -2036,20 +2033,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F9" s="2" t="n"/>
       <c r="G9" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>11</v>
@@ -2062,20 +2059,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F10" s="2" t="n"/>
       <c r="G10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>11</v>
@@ -2088,22 +2085,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="G11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>11</v>
@@ -2116,16 +2113,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="n"/>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>11</v>
@@ -2138,20 +2135,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F13" s="2" t="n"/>
       <c r="G13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>11</v>
@@ -2164,10 +2161,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="n"/>
       <c r="E14" s="2" t="n"/>
@@ -2175,7 +2172,7 @@
         <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>11</v>
@@ -2188,18 +2185,18 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" s="2" t="n"/>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>11</v>
@@ -2212,16 +2209,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="D16" s="2" t="n"/>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
       <c r="G16" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>11</v>
@@ -2257,16 +2254,16 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F1" s="2" t="n"/>
       <c r="G1" s="2" t="n"/>

--- a/testData/126mailSend.xlsx
+++ b/testData/126mailSend.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="7785" windowWidth="19935"/>
+    <workbookView windowWidth="19935" windowHeight="7785" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="测试用例" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="登录" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="发邮件" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="测试用例" sheetId="1" r:id="rId1"/>
+    <sheet name="登录" sheetId="2" r:id="rId2"/>
+    <sheet name="发邮件" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="106">
   <si>
     <t>序号</t>
   </si>
@@ -163,7 +163,7 @@
     <t>//input[@name='email']</t>
   </si>
   <si>
-    <t>linuxxiaochao</t>
+    <t>linux</t>
   </si>
   <si>
     <t>2019:03:27 15:57:05</t>
@@ -175,7 +175,7 @@
     <t>//input[@name='password']</t>
   </si>
   <si>
-    <t>xiaochao11520</t>
+    <t>xiao</t>
   </si>
   <si>
     <t>单击登录按钮</t>
@@ -265,7 +265,7 @@
     <t>ctrlV</t>
   </si>
   <si>
-    <t>D:\KeyWordDriverTestFrameWork\README.md</t>
+    <t>附件的完整路径</t>
   </si>
   <si>
     <t>2019:03:27 15:57:24</t>
@@ -335,9 +335,6 @@
   </si>
   <si>
     <t>2019:03:27 15:57:35</t>
-  </si>
-  <si>
-    <t>//span[text()=='写 信']</t>
   </si>
 </sst>
 </file>
@@ -345,203 +342,347 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ " numFmtId="164"/>
-    <numFmt formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ " numFmtId="165"/>
-    <numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ " numFmtId="166"/>
-    <numFmt formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ " numFmtId="167"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF0000FF"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11.3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <sz val="11.3"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -553,157 +694,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,20 +729,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,41 +759,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -829,229 +793,267 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="22" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="32" fontId="0" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="16" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="16" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="12" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
-    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
-    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
-    <cellStyle builtinId="20" name="输入" xfId="3"/>
-    <cellStyle builtinId="4" name="货币" xfId="4"/>
-    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
-    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
-    <cellStyle builtinId="27" name="差" xfId="7"/>
-    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
-    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
-    <cellStyle builtinId="8" name="超链接" xfId="10"/>
-    <cellStyle builtinId="5" name="百分比" xfId="11"/>
-    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
-    <cellStyle builtinId="10" name="注释" xfId="13"/>
-    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
-    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
-    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
-    <cellStyle builtinId="15" name="标题" xfId="17"/>
-    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
-    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
-    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
-    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
-    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
-    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
-    <cellStyle builtinId="21" name="输出" xfId="24"/>
-    <cellStyle builtinId="22" name="计算" xfId="25"/>
-    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
-    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
-    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
-    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
-    <cellStyle builtinId="25" name="汇总" xfId="30"/>
-    <cellStyle builtinId="26" name="好" xfId="31"/>
-    <cellStyle builtinId="28" name="适中" xfId="32"/>
-    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
-    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
-    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
-    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
-    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
-    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
-    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
-    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
-    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
-    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
-    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
-    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
-    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
-    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
-    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
-    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1340,28 +1342,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="3" width="27"/>
-    <col customWidth="1" max="3" min="3" style="3" width="39.875"/>
-    <col customWidth="1" max="4" min="4" style="3" width="10.75"/>
-    <col customWidth="1" max="5" min="5" style="3" width="10.375"/>
-    <col customWidth="1" max="6" min="6" style="3" width="17"/>
-    <col customWidth="1" max="7" min="7" style="3" width="13.875"/>
+    <col min="2" max="2" width="27" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="14.25" r="1" s="3" spans="1:7">
+    <row r="1" ht="14.25" customHeight="1" spans="1:7">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1384,8 +1383,8 @@
         <v>6</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="2" s="3" spans="1:7">
-      <c r="A2" s="6" t="n">
+    <row r="2" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -1400,13 +1399,13 @@
       <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6" t="n"/>
+      <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="3" s="3" spans="1:7">
-      <c r="A3" s="6" t="n">
+    <row r="3" ht="14.25" customHeight="1" spans="1:7">
+      <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1421,43 +1420,41 @@
       <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="6" t="n"/>
+      <c r="F3" s="6"/>
       <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="3" width="27.75"/>
-    <col customWidth="1" max="3" min="3" style="3" width="33"/>
-    <col customWidth="1" max="4" min="4" style="3" width="21.125"/>
-    <col customWidth="1" max="5" min="5" style="3" width="28.25"/>
-    <col customWidth="1" max="6" min="6" style="3" width="21"/>
-    <col customWidth="1" max="7" min="7" style="3" width="17.625"/>
-    <col customWidth="1" max="8" min="8" style="3" width="13.375"/>
-    <col customWidth="1" max="9" min="9" style="3" width="12"/>
-    <col customWidth="1" max="10" min="10" style="3" width="13"/>
+    <col min="2" max="2" width="27.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33" style="3" customWidth="1"/>
+    <col min="4" max="4" width="21.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21" style="3" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="14.25" r="1" s="3" spans="1:10">
+    <row r="1" ht="14.25" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1489,8 +1486,8 @@
         <v>23</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="2" s="3" spans="1:10">
-      <c r="A2" s="1" t="n">
+    <row r="2" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1499,8 +1496,8 @@
       <c r="C2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="n"/>
-      <c r="E2" s="2" t="n"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
@@ -1510,11 +1507,11 @@
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="3" s="3" spans="1:10">
-      <c r="A3" s="1" t="n">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1523,8 +1520,8 @@
       <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2" t="n"/>
-      <c r="E3" s="2" t="n"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
@@ -1534,11 +1531,11 @@
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="4" s="3" spans="1:10">
-      <c r="A4" s="1" t="n">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1547,20 +1544,20 @@
       <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="2" t="n"/>
-      <c r="E4" s="2" t="n"/>
-      <c r="F4" s="2" t="n"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="5" s="3" spans="1:10">
-      <c r="A5" s="1" t="n">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1569,9 +1566,9 @@
       <c r="C5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="2" t="n"/>
-      <c r="E5" s="2" t="n"/>
-      <c r="F5" s="2" t="n">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1580,11 +1577,11 @@
       <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="28.5" r="6" s="3" spans="1:10">
-      <c r="A6" s="1" t="n">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" ht="28.5" customHeight="1" spans="1:10">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1593,8 +1590,8 @@
       <c r="C6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>40</v>
       </c>
@@ -1604,11 +1601,11 @@
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="28.5" r="7" s="3" spans="1:10">
-      <c r="A7" s="1" t="n">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" ht="28.5" customHeight="1" spans="1:10">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1623,18 +1620,18 @@
       <c r="E7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="2" t="n"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="2" t="s">
         <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="8" s="3" spans="1:10">
-      <c r="A8" s="1" t="n">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1658,11 +1655,11 @@
       <c r="H8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="9" s="3" spans="1:10">
-      <c r="A9" s="1" t="n">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1686,11 +1683,11 @@
       <c r="H9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="10" s="3" spans="1:10">
-      <c r="A10" s="1" t="n">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1705,18 +1702,18 @@
       <c r="E10" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="2" t="n"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="11" s="3" spans="1:10">
-      <c r="A11" s="1" t="n">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1725,19 +1722,19 @@
       <c r="C11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="2" t="n"/>
-      <c r="E11" s="2" t="n"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="G11" s="2" t="s">
         <v>56</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="12" s="3" spans="1:10">
-      <c r="A12" s="1" t="n">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1746,9 +1743,9 @@
       <c r="C12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -1757,11 +1754,11 @@
       <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="28.5" r="13" s="3" spans="1:10">
-      <c r="A13" s="1" t="n">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" ht="28.5" customHeight="1" spans="1:10">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1770,8 +1767,8 @@
       <c r="C13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="2" t="n"/>
-      <c r="E13" s="2" t="n"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
         <v>63</v>
       </c>
@@ -1781,42 +1778,40 @@
       <c r="H13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="2" t="n"/>
-      <c r="J13" s="2" t="n"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://mai.126.com" ref="F3" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId1" display="https://mai.126.com"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="3" width="34.75"/>
-    <col customWidth="1" max="3" min="3" style="3" width="27.125"/>
-    <col customWidth="1" max="4" min="4" style="3" width="19.375"/>
-    <col customWidth="1" max="5" min="5" style="3" width="21.25"/>
-    <col customWidth="1" max="7" min="7" style="3" width="12.25"/>
-    <col customWidth="1" max="8" min="8" style="3" width="11.125"/>
-    <col customWidth="1" max="9" min="9" style="3" width="11.75"/>
+    <col min="2" max="2" width="34.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="27.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.25" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="14.25" r="1" s="3" spans="1:10">
+    <row r="1" ht="14.25" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1848,8 +1843,8 @@
         <v>23</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.25" r="2" s="3" spans="1:10">
-      <c r="A2" s="1" t="n">
+    <row r="2" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1864,18 +1859,18 @@
       <c r="E2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="2" t="n"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
         <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="n"/>
-      <c r="J2" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="3" s="3" spans="1:10">
-      <c r="A3" s="1" t="n">
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1890,18 +1885,18 @@
       <c r="E3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="2" t="n"/>
+      <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
         <v>68</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="57" r="4" s="3" spans="1:10">
-      <c r="A4" s="1" t="n">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" ht="57" customHeight="1" spans="1:10">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1925,11 +1920,11 @@
       <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="2" t="n"/>
-      <c r="J4" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="42.75" r="5" s="3" spans="1:10">
-      <c r="A5" s="1" t="n">
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" ht="42.75" customHeight="1" spans="1:10">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1953,11 +1948,11 @@
       <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="2" t="n"/>
-      <c r="J5" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="28.5" r="6" s="3" spans="1:10">
-      <c r="A6" s="1" t="n">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" ht="28.5" customHeight="1" spans="1:10">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1972,18 +1967,18 @@
       <c r="E6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F6" s="2" t="n"/>
+      <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
         <v>79</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="2" t="n"/>
-      <c r="J6" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="71.25" r="7" s="3" spans="1:10">
-      <c r="A7" s="1" t="n">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" ht="71.25" customHeight="1" spans="1:10">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1992,8 +1987,8 @@
       <c r="C7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>82</v>
       </c>
@@ -2003,11 +1998,11 @@
       <c r="H7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="2" t="n"/>
-      <c r="J7" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="8" s="3" spans="1:10">
-      <c r="A8" s="1" t="n">
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2016,20 +2011,20 @@
       <c r="C8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
         <v>83</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="2" t="n"/>
-      <c r="J8" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="28.5" r="9" s="3" spans="1:10">
-      <c r="A9" s="1" t="n">
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" ht="28.5" customHeight="1" spans="1:10">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2044,18 +2039,18 @@
       <c r="E9" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F9" s="2" t="n"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
         <v>88</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="2" t="n"/>
-      <c r="J9" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="28.5" r="10" s="3" spans="1:10">
-      <c r="A10" s="1" t="n">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" ht="28.5" customHeight="1" spans="1:10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2070,18 +2065,18 @@
       <c r="E10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="2" t="n"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="2" t="n"/>
-      <c r="J10" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="42.75" r="11" s="3" spans="1:10">
-      <c r="A11" s="1" t="n">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" ht="42.75" customHeight="1" spans="1:10">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2105,11 +2100,11 @@
       <c r="H11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="2" t="n"/>
-      <c r="J11" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="12" s="3" spans="1:10">
-      <c r="A12" s="1" t="n">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2118,20 +2113,20 @@
       <c r="C12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="2" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
         <v>96</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="2" t="n"/>
-      <c r="J12" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="28.5" r="13" s="3" spans="1:10">
-      <c r="A13" s="1" t="n">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" ht="28.5" customHeight="1" spans="1:10">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2146,18 +2141,18 @@
       <c r="E13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="2" t="n"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
         <v>96</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="2" t="n"/>
-      <c r="J13" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="14" s="3" spans="1:10">
-      <c r="A14" s="1" t="n">
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2166,9 +2161,9 @@
       <c r="C14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="2" t="n"/>
-      <c r="E14" s="2" t="n"/>
-      <c r="F14" s="2" t="n">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
         <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -2177,11 +2172,11 @@
       <c r="H14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="2" t="n"/>
-      <c r="J14" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="28.5" r="15" s="3" spans="1:10">
-      <c r="A15" s="1" t="n">
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" ht="28.5" customHeight="1" spans="1:10">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2190,8 +2185,8 @@
       <c r="C15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="2" t="n"/>
-      <c r="E15" s="2" t="n"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
         <v>102</v>
       </c>
@@ -2201,11 +2196,11 @@
       <c r="H15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="2" t="n"/>
-      <c r="J15" s="2" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="16" s="3" spans="1:10">
-      <c r="A16" s="1" t="n">
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" ht="14.25" customHeight="1" spans="1:10">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2214,64 +2209,53 @@
       <c r="C16" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="2" t="n"/>
-      <c r="E16" s="2" t="n"/>
-      <c r="F16" s="2" t="n"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
         <v>105</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="2" t="n"/>
-      <c r="J16" s="2" t="n"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="281754043@qq.com" ref="F4" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId1" display="281754043@qq.com"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row customHeight="1" ht="57" r="1" s="3" spans="1:10">
-      <c r="A1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="2" t="n"/>
-      <c r="G1" s="2" t="n"/>
-      <c r="H1" s="2" t="n"/>
-      <c r="I1" s="2" t="n"/>
-      <c r="J1" s="2" t="n"/>
+    <row r="1" ht="57" customHeight="1" spans="1:10">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>